--- a/ch7/range.xlsx
+++ b/ch7/range.xlsx
@@ -443,109 +443,109 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C10" t="n">
-        <v>173</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
